--- a/26.06/fb-surveyState.xlsx
+++ b/26.06/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Alaska</t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>22 06 2020</t>
+  </si>
+  <si>
+    <t>23 06 2020</t>
+  </si>
+  <si>
+    <t>24 06 2020</t>
+  </si>
+  <si>
+    <t>25 06 2020</t>
+  </si>
+  <si>
+    <t>26 06 2020</t>
   </si>
 </sst>
 </file>
@@ -942,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE144"/>
+  <dimension ref="A1:BE148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10034,6 +10046,9 @@
       <c r="AQ120">
         <v>0.2865304</v>
       </c>
+      <c r="AR120">
+        <v>0.9615385</v>
+      </c>
       <c r="AS120">
         <v>0.4235876</v>
       </c>
@@ -10192,6 +10207,9 @@
       <c r="AQ121">
         <v>0.2840539</v>
       </c>
+      <c r="AR121">
+        <v>0.9345793999999999</v>
+      </c>
       <c r="AS121">
         <v>0.4177374</v>
       </c>
@@ -10350,6 +10368,9 @@
       <c r="AQ122">
         <v>0.2874476</v>
       </c>
+      <c r="AR122">
+        <v>0.9345793999999999</v>
+      </c>
       <c r="AS122">
         <v>0.3340212</v>
       </c>
@@ -10508,6 +10529,9 @@
       <c r="AQ123">
         <v>0.2826041</v>
       </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
       <c r="AS123">
         <v>0.3010444</v>
       </c>
@@ -10666,6 +10690,9 @@
       <c r="AQ124">
         <v>0.2920578</v>
       </c>
+      <c r="AR124">
+        <v>0.6289308</v>
+      </c>
       <c r="AS124">
         <v>0.2494945</v>
       </c>
@@ -13406,7 +13433,7 @@
         <v>0.7922577</v>
       </c>
       <c r="G142">
-        <v>0.3658923</v>
+        <v>0.3658553</v>
       </c>
       <c r="H142">
         <v>0.2725695</v>
@@ -13551,10 +13578,795 @@
       <c r="A143" t="s">
         <v>197</v>
       </c>
+      <c r="B143">
+        <v>0.4299176</v>
+      </c>
+      <c r="C143">
+        <v>0.5841029</v>
+      </c>
+      <c r="D143">
+        <v>0.7122694000000001</v>
+      </c>
+      <c r="F143">
+        <v>0.7868727</v>
+      </c>
+      <c r="G143">
+        <v>0.3841343</v>
+      </c>
+      <c r="H143">
+        <v>0.2769999</v>
+      </c>
+      <c r="I143">
+        <v>0.1875749</v>
+      </c>
+      <c r="J143">
+        <v>0.235953</v>
+      </c>
+      <c r="K143">
+        <v>0.4361181</v>
+      </c>
+      <c r="L143">
+        <v>0.5099305</v>
+      </c>
+      <c r="M143">
+        <v>0.51729</v>
+      </c>
+      <c r="O143">
+        <v>0.2928794</v>
+      </c>
+      <c r="P143">
+        <v>0.6668236</v>
+      </c>
+      <c r="Q143">
+        <v>0.5659569</v>
+      </c>
+      <c r="R143">
+        <v>0.3051378</v>
+      </c>
+      <c r="S143">
+        <v>0.58353</v>
+      </c>
+      <c r="T143">
+        <v>0.5800238</v>
+      </c>
+      <c r="U143">
+        <v>0.5266115</v>
+      </c>
+      <c r="V143">
+        <v>0.5770281</v>
+      </c>
+      <c r="W143">
+        <v>0.265331</v>
+      </c>
+      <c r="X143">
+        <v>0.2932868</v>
+      </c>
+      <c r="Y143">
+        <v>0.1983484</v>
+      </c>
+      <c r="Z143">
+        <v>0.2353787</v>
+      </c>
+      <c r="AA143">
+        <v>0.3484233</v>
+      </c>
+      <c r="AB143">
+        <v>0.3551902</v>
+      </c>
+      <c r="AD143">
+        <v>0.6270713</v>
+      </c>
+      <c r="AE143">
+        <v>0.4060952</v>
+      </c>
+      <c r="AF143">
+        <v>0.4098095</v>
+      </c>
+      <c r="AG143">
+        <v>0.2529333</v>
+      </c>
+      <c r="AH143">
+        <v>0.4274377</v>
+      </c>
+      <c r="AI143">
+        <v>0.2193734</v>
+      </c>
+      <c r="AJ143">
+        <v>0.3646814</v>
+      </c>
+      <c r="AK143">
+        <v>0.2534445</v>
+      </c>
+      <c r="AL143">
+        <v>0.5472644</v>
+      </c>
+      <c r="AM143">
+        <v>0.3251949</v>
+      </c>
+      <c r="AN143">
+        <v>0.3087605</v>
+      </c>
+      <c r="AO143">
+        <v>0.5384904</v>
+      </c>
+      <c r="AP143">
+        <v>0.3278763</v>
+      </c>
+      <c r="AQ143">
+        <v>0.2948958</v>
+      </c>
+      <c r="AS143">
+        <v>0.3278669</v>
+      </c>
+      <c r="AT143">
+        <v>0.6595007000000001</v>
+      </c>
+      <c r="AU143">
+        <v>0.4605847</v>
+      </c>
+      <c r="AV143">
+        <v>0.5583333</v>
+      </c>
+      <c r="AW143">
+        <v>0.7355757000000001</v>
+      </c>
+      <c r="AX143">
+        <v>0.5034583</v>
+      </c>
+      <c r="AY143">
+        <v>0.3731443</v>
+      </c>
+      <c r="BA143">
+        <v>0.40764</v>
+      </c>
+      <c r="BB143">
+        <v>0.3053555</v>
+      </c>
+      <c r="BC143">
+        <v>0.3369779</v>
+      </c>
+      <c r="BD143">
+        <v>0.3224896</v>
+      </c>
+      <c r="BE143">
+        <v>0.7194416</v>
+      </c>
     </row>
     <row r="144" spans="1:57">
       <c r="A144" t="s">
         <v>198</v>
+      </c>
+      <c r="B144">
+        <v>0.5409677000000001</v>
+      </c>
+      <c r="C144">
+        <v>0.6563312</v>
+      </c>
+      <c r="D144">
+        <v>0.6758653</v>
+      </c>
+      <c r="F144">
+        <v>0.8682566</v>
+      </c>
+      <c r="G144">
+        <v>0.3732982</v>
+      </c>
+      <c r="H144">
+        <v>0.2715601</v>
+      </c>
+      <c r="I144">
+        <v>0.1603008</v>
+      </c>
+      <c r="J144">
+        <v>0.2424986</v>
+      </c>
+      <c r="K144">
+        <v>0.5102501</v>
+      </c>
+      <c r="L144">
+        <v>0.5558275</v>
+      </c>
+      <c r="M144">
+        <v>0.5254165</v>
+      </c>
+      <c r="O144">
+        <v>0.2913085</v>
+      </c>
+      <c r="P144">
+        <v>0.6317675</v>
+      </c>
+      <c r="Q144">
+        <v>0.5898221</v>
+      </c>
+      <c r="R144">
+        <v>0.3236772</v>
+      </c>
+      <c r="S144">
+        <v>0.5556495</v>
+      </c>
+      <c r="T144">
+        <v>0.5585957</v>
+      </c>
+      <c r="U144">
+        <v>0.5602354000000001</v>
+      </c>
+      <c r="V144">
+        <v>0.6214258</v>
+      </c>
+      <c r="W144">
+        <v>0.287014</v>
+      </c>
+      <c r="X144">
+        <v>0.3139187</v>
+      </c>
+      <c r="Y144">
+        <v>0.2650219</v>
+      </c>
+      <c r="Z144">
+        <v>0.2204673</v>
+      </c>
+      <c r="AA144">
+        <v>0.3137485</v>
+      </c>
+      <c r="AB144">
+        <v>0.3946895</v>
+      </c>
+      <c r="AD144">
+        <v>0.6780471</v>
+      </c>
+      <c r="AE144">
+        <v>0.442824</v>
+      </c>
+      <c r="AF144">
+        <v>0.4228497</v>
+      </c>
+      <c r="AG144">
+        <v>0.400355</v>
+      </c>
+      <c r="AH144">
+        <v>0.4924516</v>
+      </c>
+      <c r="AI144">
+        <v>0.256426</v>
+      </c>
+      <c r="AJ144">
+        <v>0.3672354</v>
+      </c>
+      <c r="AK144">
+        <v>0.2207373</v>
+      </c>
+      <c r="AL144">
+        <v>0.5672401</v>
+      </c>
+      <c r="AM144">
+        <v>0.3252889</v>
+      </c>
+      <c r="AN144">
+        <v>0.3048788</v>
+      </c>
+      <c r="AO144">
+        <v>0.5171485</v>
+      </c>
+      <c r="AP144">
+        <v>0.3007372</v>
+      </c>
+      <c r="AQ144">
+        <v>0.2739843</v>
+      </c>
+      <c r="AS144">
+        <v>0.3575959</v>
+      </c>
+      <c r="AT144">
+        <v>0.696344</v>
+      </c>
+      <c r="AU144">
+        <v>0.5482522</v>
+      </c>
+      <c r="AV144">
+        <v>0.506008</v>
+      </c>
+      <c r="AW144">
+        <v>0.7636775</v>
+      </c>
+      <c r="AX144">
+        <v>0.5754314</v>
+      </c>
+      <c r="AY144">
+        <v>0.3636353</v>
+      </c>
+      <c r="BA144">
+        <v>0.4546538</v>
+      </c>
+      <c r="BB144">
+        <v>0.3337814</v>
+      </c>
+      <c r="BC144">
+        <v>0.3328386</v>
+      </c>
+      <c r="BD144">
+        <v>0.3310033</v>
+      </c>
+      <c r="BE144">
+        <v>0.7952616</v>
+      </c>
+    </row>
+    <row r="145" spans="1:57">
+      <c r="A145" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145">
+        <v>0.3361238</v>
+      </c>
+      <c r="C145">
+        <v>0.6824983</v>
+      </c>
+      <c r="D145">
+        <v>0.6869927</v>
+      </c>
+      <c r="F145">
+        <v>0.8755231999999999</v>
+      </c>
+      <c r="G145">
+        <v>0.397048</v>
+      </c>
+      <c r="H145">
+        <v>0.3502029</v>
+      </c>
+      <c r="I145">
+        <v>0.1533982</v>
+      </c>
+      <c r="J145">
+        <v>0.244436</v>
+      </c>
+      <c r="K145">
+        <v>0.5442462</v>
+      </c>
+      <c r="L145">
+        <v>0.5817508</v>
+      </c>
+      <c r="M145">
+        <v>0.5425352</v>
+      </c>
+      <c r="O145">
+        <v>0.2230333</v>
+      </c>
+      <c r="P145">
+        <v>0.6353315</v>
+      </c>
+      <c r="Q145">
+        <v>0.5309932000000001</v>
+      </c>
+      <c r="R145">
+        <v>0.3323737</v>
+      </c>
+      <c r="S145">
+        <v>0.4743293</v>
+      </c>
+      <c r="T145">
+        <v>0.5715398</v>
+      </c>
+      <c r="U145">
+        <v>0.5476126</v>
+      </c>
+      <c r="V145">
+        <v>0.685158</v>
+      </c>
+      <c r="W145">
+        <v>0.317587</v>
+      </c>
+      <c r="X145">
+        <v>0.3285764</v>
+      </c>
+      <c r="Y145">
+        <v>0.2841275</v>
+      </c>
+      <c r="Z145">
+        <v>0.2611591</v>
+      </c>
+      <c r="AA145">
+        <v>0.335791</v>
+      </c>
+      <c r="AB145">
+        <v>0.4293275</v>
+      </c>
+      <c r="AD145">
+        <v>0.734653</v>
+      </c>
+      <c r="AE145">
+        <v>0.4720346</v>
+      </c>
+      <c r="AF145">
+        <v>0.4087258</v>
+      </c>
+      <c r="AG145">
+        <v>0.5940805</v>
+      </c>
+      <c r="AH145">
+        <v>0.4688323</v>
+      </c>
+      <c r="AI145">
+        <v>0.304383</v>
+      </c>
+      <c r="AJ145">
+        <v>0.3765047</v>
+      </c>
+      <c r="AK145">
+        <v>0.2634061</v>
+      </c>
+      <c r="AL145">
+        <v>0.5519790999999999</v>
+      </c>
+      <c r="AM145">
+        <v>0.3276885</v>
+      </c>
+      <c r="AN145">
+        <v>0.3154596</v>
+      </c>
+      <c r="AO145">
+        <v>0.5740784</v>
+      </c>
+      <c r="AP145">
+        <v>0.282927</v>
+      </c>
+      <c r="AQ145">
+        <v>0.3029777</v>
+      </c>
+      <c r="AS145">
+        <v>0.3449371</v>
+      </c>
+      <c r="AT145">
+        <v>0.7278261</v>
+      </c>
+      <c r="AU145">
+        <v>0.584093</v>
+      </c>
+      <c r="AV145">
+        <v>0.4992202</v>
+      </c>
+      <c r="AW145">
+        <v>0.8534987000000001</v>
+      </c>
+      <c r="AX145">
+        <v>0.5350799000000001</v>
+      </c>
+      <c r="AY145">
+        <v>0.3627693</v>
+      </c>
+      <c r="BA145">
+        <v>0.3484736</v>
+      </c>
+      <c r="BB145">
+        <v>0.297706</v>
+      </c>
+      <c r="BC145">
+        <v>0.3485606</v>
+      </c>
+      <c r="BD145">
+        <v>0.3954634</v>
+      </c>
+      <c r="BE145">
+        <v>0.6476771</v>
+      </c>
+    </row>
+    <row r="146" spans="1:57">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146">
+        <v>0.3527689</v>
+      </c>
+      <c r="C146">
+        <v>0.6726328</v>
+      </c>
+      <c r="D146">
+        <v>0.6582851</v>
+      </c>
+      <c r="F146">
+        <v>0.9453054</v>
+      </c>
+      <c r="G146">
+        <v>0.4242899</v>
+      </c>
+      <c r="H146">
+        <v>0.3440139</v>
+      </c>
+      <c r="I146">
+        <v>0.1581242</v>
+      </c>
+      <c r="J146">
+        <v>0.2820608</v>
+      </c>
+      <c r="K146">
+        <v>0.5092209</v>
+      </c>
+      <c r="L146">
+        <v>0.6522483</v>
+      </c>
+      <c r="M146">
+        <v>0.5396107999999999</v>
+      </c>
+      <c r="O146">
+        <v>0.2472188</v>
+      </c>
+      <c r="P146">
+        <v>0.5483575000000001</v>
+      </c>
+      <c r="Q146">
+        <v>0.5678628999999999</v>
+      </c>
+      <c r="R146">
+        <v>0.3402836</v>
+      </c>
+      <c r="S146">
+        <v>0.4992076</v>
+      </c>
+      <c r="T146">
+        <v>0.6622741</v>
+      </c>
+      <c r="U146">
+        <v>0.5391899</v>
+      </c>
+      <c r="V146">
+        <v>0.6737465</v>
+      </c>
+      <c r="W146">
+        <v>0.3009859</v>
+      </c>
+      <c r="X146">
+        <v>0.3503361</v>
+      </c>
+      <c r="Y146">
+        <v>0.2275811</v>
+      </c>
+      <c r="Z146">
+        <v>0.2584056</v>
+      </c>
+      <c r="AA146">
+        <v>0.3438407</v>
+      </c>
+      <c r="AB146">
+        <v>0.4526778</v>
+      </c>
+      <c r="AD146">
+        <v>0.8248751</v>
+      </c>
+      <c r="AE146">
+        <v>0.566879</v>
+      </c>
+      <c r="AF146">
+        <v>0.4120582</v>
+      </c>
+      <c r="AG146">
+        <v>0.8287523</v>
+      </c>
+      <c r="AH146">
+        <v>0.587907</v>
+      </c>
+      <c r="AI146">
+        <v>0.2964371</v>
+      </c>
+      <c r="AJ146">
+        <v>0.3599</v>
+      </c>
+      <c r="AK146">
+        <v>0.2570161</v>
+      </c>
+      <c r="AL146">
+        <v>0.5283232</v>
+      </c>
+      <c r="AM146">
+        <v>0.3327101</v>
+      </c>
+      <c r="AN146">
+        <v>0.2983306</v>
+      </c>
+      <c r="AO146">
+        <v>0.6271786</v>
+      </c>
+      <c r="AP146">
+        <v>0.3178141</v>
+      </c>
+      <c r="AQ146">
+        <v>0.277503</v>
+      </c>
+      <c r="AS146">
+        <v>0.344979</v>
+      </c>
+      <c r="AT146">
+        <v>0.6879987</v>
+      </c>
+      <c r="AU146">
+        <v>0.7117162</v>
+      </c>
+      <c r="AV146">
+        <v>0.5182799</v>
+      </c>
+      <c r="AW146">
+        <v>0.9088826</v>
+      </c>
+      <c r="AX146">
+        <v>0.5641392</v>
+      </c>
+      <c r="AY146">
+        <v>0.3315785</v>
+      </c>
+      <c r="BA146">
+        <v>0.286497</v>
+      </c>
+      <c r="BB146">
+        <v>0.2655729</v>
+      </c>
+      <c r="BC146">
+        <v>0.3601689</v>
+      </c>
+      <c r="BD146">
+        <v>0.4709291</v>
+      </c>
+      <c r="BE146">
+        <v>0.6664116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:57">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147">
+        <v>0.3556092</v>
+      </c>
+      <c r="C147">
+        <v>0.6356416</v>
+      </c>
+      <c r="D147">
+        <v>0.6601846</v>
+      </c>
+      <c r="F147">
+        <v>1.0347193</v>
+      </c>
+      <c r="G147">
+        <v>0.4227923</v>
+      </c>
+      <c r="H147">
+        <v>0.3387272</v>
+      </c>
+      <c r="I147">
+        <v>0.1505218</v>
+      </c>
+      <c r="J147">
+        <v>0.2752599</v>
+      </c>
+      <c r="K147">
+        <v>0.499038</v>
+      </c>
+      <c r="L147">
+        <v>0.6783066</v>
+      </c>
+      <c r="M147">
+        <v>0.5795326</v>
+      </c>
+      <c r="O147">
+        <v>0.2374947</v>
+      </c>
+      <c r="P147">
+        <v>0.4828779</v>
+      </c>
+      <c r="Q147">
+        <v>0.6138405</v>
+      </c>
+      <c r="R147">
+        <v>0.3397252</v>
+      </c>
+      <c r="S147">
+        <v>0.4960112</v>
+      </c>
+      <c r="T147">
+        <v>0.5551384</v>
+      </c>
+      <c r="U147">
+        <v>0.4425484</v>
+      </c>
+      <c r="V147">
+        <v>0.724025</v>
+      </c>
+      <c r="W147">
+        <v>0.2804375</v>
+      </c>
+      <c r="X147">
+        <v>0.3708378</v>
+      </c>
+      <c r="Y147">
+        <v>0.2782856</v>
+      </c>
+      <c r="Z147">
+        <v>0.2201957</v>
+      </c>
+      <c r="AA147">
+        <v>0.34641</v>
+      </c>
+      <c r="AB147">
+        <v>0.5682218999999999</v>
+      </c>
+      <c r="AD147">
+        <v>0.9288629</v>
+      </c>
+      <c r="AE147">
+        <v>0.6107671</v>
+      </c>
+      <c r="AF147">
+        <v>0.4377089</v>
+      </c>
+      <c r="AG147">
+        <v>0.8198613</v>
+      </c>
+      <c r="AH147">
+        <v>0.523158</v>
+      </c>
+      <c r="AI147">
+        <v>0.3966866</v>
+      </c>
+      <c r="AJ147">
+        <v>0.3670605</v>
+      </c>
+      <c r="AK147">
+        <v>0.2897309</v>
+      </c>
+      <c r="AL147">
+        <v>0.5100969</v>
+      </c>
+      <c r="AM147">
+        <v>0.3565261</v>
+      </c>
+      <c r="AN147">
+        <v>0.3144984</v>
+      </c>
+      <c r="AO147">
+        <v>0.5892324</v>
+      </c>
+      <c r="AP147">
+        <v>0.3057701</v>
+      </c>
+      <c r="AQ147">
+        <v>0.2961598</v>
+      </c>
+      <c r="AS147">
+        <v>0.3243032</v>
+      </c>
+      <c r="AT147">
+        <v>0.7662813000000001</v>
+      </c>
+      <c r="AU147">
+        <v>0.7958097</v>
+      </c>
+      <c r="AV147">
+        <v>0.5864935999999999</v>
+      </c>
+      <c r="AW147">
+        <v>0.9468583</v>
+      </c>
+      <c r="AX147">
+        <v>0.6248169</v>
+      </c>
+      <c r="AY147">
+        <v>0.2945737</v>
+      </c>
+      <c r="BA147">
+        <v>0.1518602</v>
+      </c>
+      <c r="BB147">
+        <v>0.2638247</v>
+      </c>
+      <c r="BC147">
+        <v>0.3720608</v>
+      </c>
+      <c r="BD147">
+        <v>0.4922279</v>
+      </c>
+      <c r="BE147">
+        <v>0.7418856</v>
+      </c>
+    </row>
+    <row r="148" spans="1:57">
+      <c r="A148" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
